--- a/Income/FBHS_inc.xlsx
+++ b/Income/FBHS_inc.xlsx
@@ -2207,10 +2207,8 @@
           <t>Gross Margin</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B16" s="0" t="n">
+        <v>0.3549</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0.3499</v>
@@ -2338,10 +2336,8 @@
           <t>EBIT Margin</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>0.1385</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0.1316</v>
@@ -2469,10 +2465,8 @@
           <t>EBT margin</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B18" s="0" t="n">
+        <v>0.1263</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0.12</v>
@@ -2600,10 +2594,8 @@
           <t>Net Profit Margin</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B19" s="0" t="n">
+        <v>0.0964</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0.091</v>
@@ -2731,10 +2723,8 @@
           <t>Free Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B20" s="0" t="n">
+        <v>0.0965</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0.1111</v>
@@ -4292,10 +4282,8 @@
           <t>EBITDA Margin</t>
         </is>
       </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B31" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0.173</v>
@@ -4423,10 +4411,8 @@
           <t>Operating Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B32" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B32" s="0" t="n">
+        <v>0.1193</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0.1356</v>
